--- a/Raw data/Breads_batch 2.xlsx
+++ b/Raw data/Breads_batch 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E354545-51B9-44B0-8BA6-E8AB1EF3DB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D67D065-1D58-465A-B5BD-9126F8AB1052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="commercial" sheetId="1" r:id="rId1"/>
-    <sheet name="from the lab" sheetId="2" r:id="rId2"/>
+    <sheet name="oat breads from the lab" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6208,8 +6208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9126,7 +9126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEF9228-D60B-4FE9-8C38-FF09B8EEC360}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
